--- a/docs/Anonymization/Anonymization Spec.xlsx
+++ b/docs/Anonymization/Anonymization Spec.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="575">
   <si>
     <t>#UIDs</t>
   </si>
@@ -1666,13 +1666,88 @@
   </si>
   <si>
     <t>Tag anonymized in ShUp but it was mentioned in Justine doc that it should be kept</t>
+  </si>
+  <si>
+    <t>Nom du champ DICOM</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Justification</t>
+  </si>
+  <si>
+    <t>Identifiant du patient</t>
+  </si>
+  <si>
+    <t>Remplacé par le double hash SHA256 de la concaténation « prénom ; nom de naissance ; date de naissance »</t>
+  </si>
+  <si>
+    <t>Identifiant Shanoir</t>
+  </si>
+  <si>
+    <t>Date de naissance du patient</t>
+  </si>
+  <si>
+    <t>JJ/MM/AAAA est remplacé par 01/01/AAAA</t>
+  </si>
+  <si>
+    <t>Calcul de l'âge des patients à l'examen</t>
+  </si>
+  <si>
+    <t>Sexe du patient</t>
+  </si>
+  <si>
+    <t>Aucune</t>
+  </si>
+  <si>
+    <t>Nécessaire pour l'étude des IRM</t>
+  </si>
+  <si>
+    <t>Poids du patient</t>
+  </si>
+  <si>
+    <t>Calcul de la dose de produit de contraste injectée</t>
+  </si>
+  <si>
+    <t>Date d'acquisition de l'examen</t>
+  </si>
+  <si>
+    <t>Calcul de l'écart entre deux examens</t>
+  </si>
+  <si>
+    <t>Nom de la séquence</t>
+  </si>
+  <si>
+    <t>Application de la « study card » dans Shanoir</t>
+  </si>
+  <si>
+    <t>Heure à laquelle la séquence a été effectuée</t>
+  </si>
+  <si>
+    <t>Vérification du délai entre injection de produit de contraste et réalisation de la séquence</t>
+  </si>
+  <si>
+    <t>Agent de contraste</t>
+  </si>
+  <si>
+    <t>Nécessaire pour l'évaluation des IRM</t>
+  </si>
+  <si>
+    <t>Numéro de série de l'appareil IRM</t>
+  </si>
+  <si>
+    <t>#  Annexe</t>
+  </si>
+  <si>
+    <t>OFSEP Spec of tags to be kept</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1702,8 +1777,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1720,8 +1817,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1729,13 +1831,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1746,11 +1901,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Insatisfaisant" xfId="1" builtinId="27"/>
     <cellStyle name="Neutre" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Satisfaisant" xfId="3" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2190,7 +2362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A619"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -4272,17 +4444,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -4713,7 +4885,7 @@
       <c r="A66" t="s">
         <v>88</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="6" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4729,7 +4901,7 @@
       <c r="A68" t="s">
         <v>527</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="6" t="s">
         <v>526</v>
       </c>
     </row>
@@ -4737,7 +4909,7 @@
       <c r="A69" t="s">
         <v>529</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="6" t="s">
         <v>528</v>
       </c>
     </row>
@@ -4745,7 +4917,7 @@
       <c r="A70" t="s">
         <v>531</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="6" t="s">
         <v>530</v>
       </c>
     </row>
@@ -4753,7 +4925,7 @@
       <c r="A71" t="s">
         <v>544</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="6" t="s">
         <v>543</v>
       </c>
     </row>
@@ -4802,7 +4974,129 @@
         <v>534</v>
       </c>
     </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>567</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>